--- a/工具-测试数据折线图生成.xlsx
+++ b/工具-测试数据折线图生成.xlsx
@@ -113,7 +113,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>4</a:t>
+              <a:t>8</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US"/>
@@ -200,11 +200,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="585783264"/>
-        <c:axId val="585782088"/>
+        <c:axId val="409753168"/>
+        <c:axId val="409751992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="585783264"/>
+        <c:axId val="409753168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -246,7 +246,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585782088"/>
+        <c:crossAx val="409751992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -254,7 +254,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="585782088"/>
+        <c:axId val="409751992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -305,7 +305,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585783264"/>
+        <c:crossAx val="409753168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
